--- a/asd_balanced_patched_map.xlsx
+++ b/asd_balanced_patched_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C34C5E-6484-4072-A4D0-61FA0C148390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAAB1A6-397B-4C7C-A0E4-532B9A9ED6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="224">
   <si>
     <t>type</t>
   </si>
@@ -511,14 +511,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>가도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>샛길 (샘)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>산 초입</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -539,18 +531,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>묘지 건물 입구</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공동묘지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>묘지 끝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>건물 안</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -559,18 +539,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>일반 안식실</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>건물 발코니</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>복도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>수상한 의식실</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -587,10 +559,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>감옥 (제물보관실)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>맵 30장</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -728,6 +696,169 @@
   </si>
   <si>
     <t>기믹 : 사운드에 따라 방향키 반전</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>castle_wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>road1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>road2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>road3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fountain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain_enterance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>deeper_mountain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spooky_mountain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘지 끝 (서)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘지 끝 (북)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cemetery_entrance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cemetery1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cemetery2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cemetery3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cemetery4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cemetery_end_west</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cemetery_end_north</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 입구</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>castle_entrance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>복도1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>복도2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 안식실1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 안식실2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>복도3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>감옥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>castle_inside</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>castle_lobby</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortuary_room_east</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortuary_room_south</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hall1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hall2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>valcony</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>corridor1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>corridor3</t>
+  </si>
+  <si>
+    <t>corridor2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ritual_room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center_entrance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>center</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +929,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +991,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,6 +1302,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,29 +1337,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="보통" xfId="2" builtinId="28"/>
@@ -1513,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z10" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28"/>
+    <sheetView tabSelected="1" topLeftCell="O19" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1604,40 +1741,40 @@
       <c r="K2">
         <v>0.09</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61" t="s">
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="63" t="s">
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="62" t="s">
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="56" t="s">
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1664,40 +1801,40 @@
       <c r="H3" s="2">
         <v>1.45</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="62" t="s">
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62" t="s">
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="65" t="s">
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="66" t="s">
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="56" t="s">
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1753,16 +1890,16 @@
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="24"/>
-      <c r="AG4" s="57" t="s">
+      <c r="AG4" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="62" t="s">
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
       <c r="AM4" s="30" t="s">
         <v>95</v>
       </c>
@@ -1848,11 +1985,11 @@
       </c>
       <c r="W6" s="26"/>
       <c r="X6" s="25" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="26"/>
       <c r="AB6" s="54" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AF6" s="26"/>
       <c r="AG6" s="25"/>
@@ -1908,20 +2045,20 @@
       <c r="V7" s="28"/>
       <c r="W7" s="29"/>
       <c r="X7" s="27" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
       <c r="AA7" s="29"/>
       <c r="AB7" s="27" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="28"/>
       <c r="AF7" s="29"/>
       <c r="AG7" s="27" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AH7" s="28"/>
       <c r="AI7" s="29"/>
@@ -2229,14 +2366,14 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="S14" s="51" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="T14" s="52"/>
       <c r="U14" s="53" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="V14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AB14" s="47" t="s">
         <v>106</v>
@@ -2311,7 +2448,7 @@
       <c r="K16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S16" s="64" t="s">
+      <c r="S16" s="58" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="22" t="s">
@@ -2345,7 +2482,7 @@
       <c r="H17" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S17" s="64"/>
+      <c r="S17" s="58"/>
       <c r="T17" s="25" t="s">
         <v>130</v>
       </c>
@@ -2376,7 +2513,7 @@
       <c r="H18" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S18" s="64"/>
+      <c r="S18" s="58"/>
       <c r="T18" s="25" t="s">
         <v>131</v>
       </c>
@@ -2407,7 +2544,7 @@
       <c r="H19" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S19" s="64"/>
+      <c r="S19" s="58"/>
       <c r="T19" s="25" t="s">
         <v>132</v>
       </c>
@@ -2448,20 +2585,20 @@
       <c r="K20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S20" s="64"/>
+      <c r="S20" s="58"/>
       <c r="T20" s="27" t="s">
         <v>133</v>
       </c>
       <c r="U20" s="28"/>
       <c r="V20" s="29"/>
-      <c r="Y20" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF20" s="68" t="s">
+      <c r="Y20" s="50">
+        <v>28</v>
+      </c>
+      <c r="AF20" s="57" t="s">
         <v>123</v>
       </c>
       <c r="AG20" s="22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AH20" s="23"/>
       <c r="AI20" s="23"/>
@@ -2498,21 +2635,13 @@
       <c r="H21" s="2">
         <v>1.07</v>
       </c>
-      <c r="Y21" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF21" s="68"/>
+      <c r="Y21" s="50">
+        <v>25</v>
+      </c>
+      <c r="AF21" s="57"/>
       <c r="AG21" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="67"/>
-      <c r="AN21" s="67"/>
-      <c r="AO21" s="67"/>
+        <v>175</v>
+      </c>
       <c r="AP21" s="26"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.3">
@@ -2540,30 +2669,22 @@
       <c r="H22" s="2">
         <v>1.07</v>
       </c>
-      <c r="Y22" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z22" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA22" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB22" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF22" s="68"/>
+      <c r="Y22" s="50">
+        <v>27</v>
+      </c>
+      <c r="Z22" s="50">
+        <v>26</v>
+      </c>
+      <c r="AA22" s="50">
+        <v>29</v>
+      </c>
+      <c r="AB22" s="44">
+        <v>30</v>
+      </c>
+      <c r="AF22" s="57"/>
       <c r="AG22" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="67"/>
-      <c r="AN22" s="67"/>
-      <c r="AO22" s="67"/>
+        <v>177</v>
+      </c>
       <c r="AP22" s="26"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.3">
@@ -2591,15 +2712,15 @@
       <c r="H23" s="2">
         <v>1.07</v>
       </c>
-      <c r="U23" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y23" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF23" s="68"/>
+      <c r="U23" s="40">
+        <v>15</v>
+      </c>
+      <c r="Y23" s="50">
+        <v>24</v>
+      </c>
+      <c r="AF23" s="57"/>
       <c r="AG23" s="27" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
@@ -2645,26 +2766,18 @@
       <c r="K24">
         <v>0.08</v>
       </c>
-      <c r="U24" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y24" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF24" s="68" t="s">
+      <c r="U24" s="40">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="43">
+        <v>21</v>
+      </c>
+      <c r="AF24" s="57" t="s">
         <v>124</v>
       </c>
       <c r="AG24" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="67"/>
-      <c r="AJ24" s="67"/>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="67"/>
-      <c r="AM24" s="67"/>
-      <c r="AN24" s="67"/>
-      <c r="AO24" s="67"/>
+        <v>170</v>
+      </c>
       <c r="AP24" s="26"/>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.3">
@@ -2692,36 +2805,28 @@
       <c r="H25" s="2">
         <v>1.06</v>
       </c>
-      <c r="U25" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="V25" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="W25" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="X25" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y25" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z25" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF25" s="68"/>
+      <c r="U25" s="40">
+        <v>11</v>
+      </c>
+      <c r="V25" s="40">
+        <v>13</v>
+      </c>
+      <c r="W25" s="42">
+        <v>16</v>
+      </c>
+      <c r="X25" s="43">
+        <v>17</v>
+      </c>
+      <c r="Y25" s="43">
+        <v>18</v>
+      </c>
+      <c r="Z25" s="43">
+        <v>20</v>
+      </c>
+      <c r="AF25" s="57"/>
       <c r="AG25" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="67"/>
-      <c r="AM25" s="67"/>
-      <c r="AN25" s="67"/>
-      <c r="AO25" s="67"/>
+        <v>171</v>
+      </c>
       <c r="AP25" s="26"/>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.3">
@@ -2749,27 +2854,19 @@
       <c r="H26" s="2">
         <v>1.06</v>
       </c>
-      <c r="T26" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="U26" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y26" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF26" s="68"/>
+      <c r="T26" s="40">
+        <v>14</v>
+      </c>
+      <c r="U26" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="43">
+        <v>19</v>
+      </c>
+      <c r="AF26" s="57"/>
       <c r="AG26" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="67"/>
-      <c r="AN26" s="67"/>
-      <c r="AO26" s="67"/>
+        <v>172</v>
+      </c>
       <c r="AP26" s="26"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
@@ -2806,24 +2903,16 @@
       <c r="K27">
         <v>0.06</v>
       </c>
-      <c r="U27" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y27" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF27" s="68"/>
+      <c r="U27" s="40">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="45">
+        <v>22</v>
+      </c>
+      <c r="AF27" s="57"/>
       <c r="AG27" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH27" s="67"/>
-      <c r="AI27" s="67"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="67"/>
-      <c r="AL27" s="67"/>
-      <c r="AM27" s="67"/>
-      <c r="AN27" s="67"/>
-      <c r="AO27" s="67"/>
+        <v>173</v>
+      </c>
       <c r="AP27" s="26"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.3">
@@ -2851,28 +2940,22 @@
       <c r="H28" s="2">
         <v>1.0449999999999999</v>
       </c>
-      <c r="U28" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y28" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF28" s="68"/>
+      <c r="U28" s="39">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="43">
+        <v>23</v>
+      </c>
+      <c r="AF28" s="57"/>
       <c r="AG28" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ28" s="67"/>
-      <c r="AK28" s="67"/>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="67"/>
-      <c r="AN28" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO28" s="67"/>
+        <v>174</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>178</v>
+      </c>
       <c r="AP28" s="26"/>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
@@ -2909,12 +2992,12 @@
       <c r="K29">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="U29" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF29" s="68"/>
+      <c r="U29" s="39">
+        <v>7</v>
+      </c>
+      <c r="AF29" s="57"/>
       <c r="AG29" s="27" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
@@ -2923,7 +3006,7 @@
       <c r="AL29" s="28"/>
       <c r="AM29" s="28"/>
       <c r="AN29" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AO29" s="28"/>
       <c r="AP29" s="29"/>
@@ -2953,11 +3036,11 @@
       <c r="H30" s="2">
         <v>1.05</v>
       </c>
-      <c r="U30" s="39" t="s">
-        <v>138</v>
+      <c r="U30" s="39">
+        <v>6</v>
       </c>
       <c r="AN30" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.3">
@@ -2988,17 +3071,17 @@
       <c r="R31" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="S31" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="T31" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="V31" s="39" t="s">
-        <v>136</v>
+      <c r="S31" s="39">
+        <v>1</v>
+      </c>
+      <c r="T31" s="39">
+        <v>2</v>
+      </c>
+      <c r="U31" s="39">
+        <v>3</v>
+      </c>
+      <c r="V31" s="39">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.3">
@@ -3035,20 +3118,20 @@
       <c r="K32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T32" s="39" t="s">
-        <v>137</v>
+      <c r="T32" s="39">
+        <v>5</v>
       </c>
       <c r="AE32" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF32" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF32" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="AG32" s="69" t="s">
-        <v>172</v>
+      <c r="AG32" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="AH32" s="30" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AI32" s="31"/>
       <c r="AJ32" s="31"/>
@@ -3086,20 +3169,20 @@
       <c r="H33" s="2">
         <v>1.04</v>
       </c>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
       <c r="AH33" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI33" s="70"/>
-      <c r="AJ33" s="70"/>
-      <c r="AK33" s="70"/>
-      <c r="AL33" s="70"/>
-      <c r="AM33" s="70"/>
-      <c r="AN33" s="70"/>
-      <c r="AO33" s="70"/>
-      <c r="AP33" s="70"/>
-      <c r="AQ33" s="70"/>
+        <v>155</v>
+      </c>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AM33" s="34"/>
+      <c r="AN33" s="34"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="34"/>
+      <c r="AQ33" s="34"/>
       <c r="AR33" s="35"/>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.3">
@@ -3136,10 +3219,46 @@
       <c r="K34" t="s">
         <v>54</v>
       </c>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="69"/>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s">
+        <v>183</v>
+      </c>
+      <c r="T34" t="s">
+        <v>135</v>
+      </c>
+      <c r="U34" s="69">
+        <v>9</v>
+      </c>
+      <c r="V34" t="s">
+        <v>195</v>
+      </c>
+      <c r="W34" t="s">
+        <v>139</v>
+      </c>
+      <c r="X34">
+        <v>17</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA34">
+        <v>24</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
       <c r="AH34" s="36" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AI34" s="37"/>
       <c r="AJ34" s="37"/>
@@ -3177,12 +3296,48 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69" t="s">
-        <v>171</v>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35" t="s">
+        <v>184</v>
+      </c>
+      <c r="T35" t="s">
+        <v>189</v>
+      </c>
+      <c r="U35" s="69">
+        <v>10</v>
+      </c>
+      <c r="V35" t="s">
+        <v>196</v>
+      </c>
+      <c r="W35" t="s">
+        <v>140</v>
+      </c>
+      <c r="X35">
+        <v>18</v>
+      </c>
+      <c r="Y35" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z35" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA35">
+        <v>25</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56" t="s">
+        <v>163</v>
       </c>
       <c r="AH35" s="30" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AI35" s="31"/>
       <c r="AJ35" s="31"/>
@@ -3238,61 +3393,205 @@
       <c r="N36">
         <v>1</v>
       </c>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="69"/>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s">
+        <v>185</v>
+      </c>
+      <c r="T36" t="s">
+        <v>189</v>
+      </c>
+      <c r="U36" s="69">
+        <v>11</v>
+      </c>
+      <c r="V36" t="s">
+        <v>197</v>
+      </c>
+      <c r="W36" t="s">
+        <v>140</v>
+      </c>
+      <c r="X36">
+        <v>19</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA36">
+        <v>26</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
       <c r="AH36" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI36" s="70"/>
-      <c r="AJ36" s="70"/>
-      <c r="AK36" s="70"/>
-      <c r="AL36" s="70"/>
-      <c r="AM36" s="70"/>
-      <c r="AN36" s="70"/>
-      <c r="AO36" s="70"/>
-      <c r="AP36" s="70"/>
-      <c r="AQ36" s="70"/>
+        <v>158</v>
+      </c>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="34"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
       <c r="AR36" s="35"/>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s">
+        <v>186</v>
+      </c>
+      <c r="T37" t="s">
+        <v>189</v>
+      </c>
+      <c r="U37" s="69">
+        <v>12</v>
+      </c>
+      <c r="V37" t="s">
+        <v>198</v>
+      </c>
+      <c r="W37" t="s">
+        <v>140</v>
+      </c>
+      <c r="X37">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA37">
+        <v>27</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
       <c r="AH37" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI37" s="70"/>
-      <c r="AJ37" s="70"/>
-      <c r="AK37" s="70"/>
-      <c r="AL37" s="70"/>
-      <c r="AM37" s="70"/>
-      <c r="AN37" s="70"/>
-      <c r="AO37" s="70"/>
-      <c r="AP37" s="70"/>
-      <c r="AQ37" s="70"/>
+        <v>157</v>
+      </c>
+      <c r="AI37" s="34"/>
+      <c r="AJ37" s="34"/>
+      <c r="AK37" s="34"/>
+      <c r="AL37" s="34"/>
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="34"/>
+      <c r="AO37" s="34"/>
+      <c r="AP37" s="34"/>
+      <c r="AQ37" s="34"/>
       <c r="AR37" s="35"/>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="AF38" s="69"/>
-      <c r="AG38" s="69"/>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s">
+        <v>187</v>
+      </c>
+      <c r="T38" t="s">
+        <v>188</v>
+      </c>
+      <c r="U38" s="69">
+        <v>13</v>
+      </c>
+      <c r="V38" t="s">
+        <v>199</v>
+      </c>
+      <c r="W38" t="s">
+        <v>140</v>
+      </c>
+      <c r="X38">
+        <v>21</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA38">
+        <v>28</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
       <c r="AH38" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="34"/>
+      <c r="AK38" s="34"/>
+      <c r="AL38" s="34"/>
+      <c r="AM38" s="34"/>
+      <c r="AN38" s="34"/>
+      <c r="AO38" s="34"/>
+      <c r="AP38" s="34"/>
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="35"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39" t="s">
+        <v>190</v>
+      </c>
+      <c r="T39" t="s">
+        <v>136</v>
+      </c>
+      <c r="U39" s="69">
+        <v>14</v>
+      </c>
+      <c r="V39" t="s">
+        <v>200</v>
+      </c>
+      <c r="W39" t="s">
+        <v>193</v>
+      </c>
+      <c r="X39">
+        <v>22</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA39">
+        <v>29</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="36" t="s">
         <v>167</v>
-      </c>
-      <c r="AI38" s="70"/>
-      <c r="AJ38" s="70"/>
-      <c r="AK38" s="70"/>
-      <c r="AL38" s="70"/>
-      <c r="AM38" s="70"/>
-      <c r="AN38" s="70"/>
-      <c r="AO38" s="70"/>
-      <c r="AP38" s="70"/>
-      <c r="AQ38" s="70"/>
-      <c r="AR38" s="35"/>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
-      <c r="AH39" s="36" t="s">
-        <v>175</v>
       </c>
       <c r="AI39" s="37"/>
       <c r="AJ39" s="37"/>
@@ -3306,12 +3605,48 @@
       <c r="AR39" s="38"/>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="AF40" s="69"/>
-      <c r="AG40" s="69" t="s">
-        <v>170</v>
+      <c r="R40">
+        <v>7</v>
+      </c>
+      <c r="S40" t="s">
+        <v>191</v>
+      </c>
+      <c r="T40" t="s">
+        <v>137</v>
+      </c>
+      <c r="U40" s="69">
+        <v>15</v>
+      </c>
+      <c r="V40" t="s">
+        <v>201</v>
+      </c>
+      <c r="W40" t="s">
+        <v>194</v>
+      </c>
+      <c r="X40">
+        <v>23</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA40">
+        <v>30</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF40" s="56"/>
+      <c r="AG40" s="56" t="s">
+        <v>162</v>
       </c>
       <c r="AH40" s="30" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AI40" s="31"/>
       <c r="AJ40" s="31"/>
@@ -3325,10 +3660,28 @@
       <c r="AR40" s="32"/>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="69"/>
+      <c r="R41">
+        <v>8</v>
+      </c>
+      <c r="S41" t="s">
+        <v>192</v>
+      </c>
+      <c r="T41" t="s">
+        <v>138</v>
+      </c>
+      <c r="U41" s="69">
+        <v>16</v>
+      </c>
+      <c r="V41" t="s">
+        <v>203</v>
+      </c>
+      <c r="W41" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56"/>
       <c r="AH41" s="36" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AI41" s="37"/>
       <c r="AJ41" s="37"/>
@@ -3513,17 +3866,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AG32:AG34"/>
-    <mergeCell ref="AG35:AG39"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AF32:AF41"/>
-    <mergeCell ref="AF24:AF29"/>
-    <mergeCell ref="S16:S20"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AF20:AF23"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AG4:AI4"/>
@@ -3532,6 +3874,17 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AF20:AF23"/>
+    <mergeCell ref="AG32:AG34"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AF32:AF41"/>
+    <mergeCell ref="AF24:AF29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asd_balanced_patched_map.xlsx
+++ b/asd_balanced_patched_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAAB1A6-397B-4C7C-A0E4-532B9A9ED6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571CF9C-277F-4415-9FE7-647D746E878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="228">
   <si>
     <t>type</t>
   </si>
@@ -667,14 +667,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 : 번개</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 : 불타는 해골 + 스켈레톤 미만급 소환</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 : 옛날 에셋 [불]로 하는 탄막 슈팅 게임</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -859,6 +851,30 @@
   </si>
   <si>
     <t>center</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>summons</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_shoot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hassle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 : 추적 번개</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 : 불타는 해골 + 스켈레톤 미만급 소환 (개체수 유지+뎀감 or 누적 개체수)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1242,7 +1258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1301,24 +1317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1337,11 +1336,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="보통" xfId="2" builtinId="28"/>
@@ -1650,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O19" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView tabSelected="1" topLeftCell="AC10" workbookViewId="0">
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1741,40 +1756,40 @@
       <c r="K2">
         <v>0.09</v>
       </c>
-      <c r="S2" s="66" t="s">
+      <c r="S2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67" t="s">
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68" t="s">
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="61" t="s">
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="62" t="s">
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1801,40 +1816,40 @@
       <c r="H3" s="2">
         <v>1.45</v>
       </c>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="61" t="s">
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61" t="s">
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="59" t="s">
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="60" t="s">
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="62" t="s">
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1890,16 +1905,16 @@
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="24"/>
-      <c r="AG4" s="63" t="s">
+      <c r="AG4" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="61" t="s">
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
       <c r="AM4" s="30" t="s">
         <v>95</v>
       </c>
@@ -2448,7 +2463,7 @@
       <c r="K16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S16" s="58" t="s">
+      <c r="S16" s="65" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="22" t="s">
@@ -2482,7 +2497,7 @@
       <c r="H17" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S17" s="58"/>
+      <c r="S17" s="65"/>
       <c r="T17" s="25" t="s">
         <v>130</v>
       </c>
@@ -2513,7 +2528,7 @@
       <c r="H18" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S18" s="58"/>
+      <c r="S18" s="65"/>
       <c r="T18" s="25" t="s">
         <v>131</v>
       </c>
@@ -2544,7 +2559,7 @@
       <c r="H19" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S19" s="58"/>
+      <c r="S19" s="65"/>
       <c r="T19" s="25" t="s">
         <v>132</v>
       </c>
@@ -2585,7 +2600,7 @@
       <c r="K20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S20" s="58"/>
+      <c r="S20" s="65"/>
       <c r="T20" s="27" t="s">
         <v>133</v>
       </c>
@@ -2594,11 +2609,14 @@
       <c r="Y20" s="50">
         <v>28</v>
       </c>
-      <c r="AF20" s="57" t="s">
+      <c r="AE20" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF20" s="68" t="s">
         <v>123</v>
       </c>
       <c r="AG20" s="22" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="AH20" s="23"/>
       <c r="AI20" s="23"/>
@@ -2638,9 +2656,12 @@
       <c r="Y21" s="50">
         <v>25</v>
       </c>
-      <c r="AF21" s="57"/>
+      <c r="AE21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF21" s="68"/>
       <c r="AG21" s="25" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="AP21" s="26"/>
     </row>
@@ -2681,9 +2702,12 @@
       <c r="AB22" s="44">
         <v>30</v>
       </c>
-      <c r="AF22" s="57"/>
+      <c r="AE22" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF22" s="68"/>
       <c r="AG22" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AP22" s="26"/>
     </row>
@@ -2718,9 +2742,12 @@
       <c r="Y23" s="50">
         <v>24</v>
       </c>
-      <c r="AF23" s="57"/>
+      <c r="AE23" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF23" s="68"/>
       <c r="AG23" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
@@ -2772,7 +2799,7 @@
       <c r="Y24" s="43">
         <v>21</v>
       </c>
-      <c r="AF24" s="57" t="s">
+      <c r="AF24" s="68" t="s">
         <v>124</v>
       </c>
       <c r="AG24" s="25" t="s">
@@ -2823,7 +2850,7 @@
       <c r="Z25" s="43">
         <v>20</v>
       </c>
-      <c r="AF25" s="57"/>
+      <c r="AF25" s="68"/>
       <c r="AG25" s="25" t="s">
         <v>171</v>
       </c>
@@ -2863,7 +2890,7 @@
       <c r="Y26" s="43">
         <v>19</v>
       </c>
-      <c r="AF26" s="57"/>
+      <c r="AF26" s="68"/>
       <c r="AG26" s="25" t="s">
         <v>172</v>
       </c>
@@ -2909,7 +2936,7 @@
       <c r="Y27" s="45">
         <v>22</v>
       </c>
-      <c r="AF27" s="57"/>
+      <c r="AF27" s="68"/>
       <c r="AG27" s="25" t="s">
         <v>173</v>
       </c>
@@ -2946,15 +2973,15 @@
       <c r="Y28" s="43">
         <v>23</v>
       </c>
-      <c r="AF28" s="57"/>
+      <c r="AF28" s="68"/>
       <c r="AG28" s="25" t="s">
         <v>174</v>
       </c>
       <c r="AI28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AN28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AP28" s="26"/>
     </row>
@@ -2995,7 +3022,7 @@
       <c r="U29" s="39">
         <v>7</v>
       </c>
-      <c r="AF29" s="57"/>
+      <c r="AF29" s="68"/>
       <c r="AG29" s="27" t="s">
         <v>169</v>
       </c>
@@ -3006,7 +3033,7 @@
       <c r="AL29" s="28"/>
       <c r="AM29" s="28"/>
       <c r="AN29" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AO29" s="28"/>
       <c r="AP29" s="29"/>
@@ -3040,7 +3067,7 @@
         <v>6</v>
       </c>
       <c r="AN30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.3">
@@ -3124,10 +3151,10 @@
       <c r="AE32" t="s">
         <v>168</v>
       </c>
-      <c r="AF32" s="56" t="s">
+      <c r="AF32" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="AG32" s="56" t="s">
+      <c r="AG32" s="69" t="s">
         <v>164</v>
       </c>
       <c r="AH32" s="30" t="s">
@@ -3169,8 +3196,8 @@
       <c r="H33" s="2">
         <v>1.04</v>
       </c>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="69"/>
       <c r="AH33" s="33" t="s">
         <v>155</v>
       </c>
@@ -3223,16 +3250,16 @@
         <v>1</v>
       </c>
       <c r="S34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T34" t="s">
         <v>135</v>
       </c>
-      <c r="U34" s="69">
+      <c r="U34">
         <v>9</v>
       </c>
       <c r="V34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W34" t="s">
         <v>139</v>
@@ -3241,7 +3268,7 @@
         <v>17</v>
       </c>
       <c r="Y34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Z34" t="s">
         <v>141</v>
@@ -3250,13 +3277,13 @@
         <v>24</v>
       </c>
       <c r="AB34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AC34" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
+        <v>202</v>
+      </c>
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="69"/>
       <c r="AH34" s="36" t="s">
         <v>156</v>
       </c>
@@ -3300,16 +3327,16 @@
         <v>2</v>
       </c>
       <c r="S35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T35" t="s">
-        <v>189</v>
-      </c>
-      <c r="U35" s="69">
+        <v>187</v>
+      </c>
+      <c r="U35">
         <v>10</v>
       </c>
       <c r="V35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="W35" t="s">
         <v>140</v>
@@ -3317,23 +3344,23 @@
       <c r="X35">
         <v>18</v>
       </c>
-      <c r="Y35" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z35" s="70" t="s">
+      <c r="Y35" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z35" s="56" t="s">
         <v>142</v>
       </c>
       <c r="AA35">
         <v>25</v>
       </c>
       <c r="AB35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AC35" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69" t="s">
         <v>163</v>
       </c>
       <c r="AH35" s="30" t="s">
@@ -3397,16 +3424,16 @@
         <v>3</v>
       </c>
       <c r="S36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T36" t="s">
-        <v>189</v>
-      </c>
-      <c r="U36" s="69">
+        <v>187</v>
+      </c>
+      <c r="U36">
         <v>11</v>
       </c>
       <c r="V36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="W36" t="s">
         <v>140</v>
@@ -3415,22 +3442,22 @@
         <v>19</v>
       </c>
       <c r="Y36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA36">
         <v>26</v>
       </c>
       <c r="AB36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AC36" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
+        <v>206</v>
+      </c>
+      <c r="AF36" s="69"/>
+      <c r="AG36" s="69"/>
       <c r="AH36" s="33" t="s">
         <v>158</v>
       </c>
@@ -3450,16 +3477,16 @@
         <v>4</v>
       </c>
       <c r="S37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T37" t="s">
-        <v>189</v>
-      </c>
-      <c r="U37" s="69">
+        <v>187</v>
+      </c>
+      <c r="U37">
         <v>12</v>
       </c>
       <c r="V37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W37" t="s">
         <v>140</v>
@@ -3468,22 +3495,22 @@
         <v>20</v>
       </c>
       <c r="Y37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA37">
         <v>27</v>
       </c>
       <c r="AB37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AC37" t="s">
         <v>144</v>
       </c>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="69"/>
       <c r="AH37" s="33" t="s">
         <v>157</v>
       </c>
@@ -3503,16 +3530,16 @@
         <v>5</v>
       </c>
       <c r="S38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T38" t="s">
-        <v>188</v>
-      </c>
-      <c r="U38" s="69">
+        <v>186</v>
+      </c>
+      <c r="U38">
         <v>13</v>
       </c>
       <c r="V38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W38" t="s">
         <v>140</v>
@@ -3521,22 +3548,22 @@
         <v>21</v>
       </c>
       <c r="Y38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA38">
         <v>28</v>
       </c>
       <c r="AB38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AC38" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
+        <v>207</v>
+      </c>
+      <c r="AF38" s="69"/>
+      <c r="AG38" s="69"/>
       <c r="AH38" s="33" t="s">
         <v>159</v>
       </c>
@@ -3556,40 +3583,40 @@
         <v>6</v>
       </c>
       <c r="S39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T39" t="s">
         <v>136</v>
       </c>
-      <c r="U39" s="69">
+      <c r="U39">
         <v>14</v>
       </c>
       <c r="V39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X39">
         <v>22</v>
       </c>
       <c r="Y39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Z39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AA39">
         <v>29</v>
       </c>
       <c r="AB39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC39" t="s">
         <v>145</v>
       </c>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
+      <c r="AF39" s="69"/>
+      <c r="AG39" s="69"/>
       <c r="AH39" s="36" t="s">
         <v>167</v>
       </c>
@@ -3609,25 +3636,25 @@
         <v>7</v>
       </c>
       <c r="S40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T40" t="s">
         <v>137</v>
       </c>
-      <c r="U40" s="69">
+      <c r="U40">
         <v>15</v>
       </c>
       <c r="V40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X40">
         <v>23</v>
       </c>
       <c r="Y40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z40" t="s">
         <v>143</v>
@@ -3636,13 +3663,13 @@
         <v>30</v>
       </c>
       <c r="AB40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC40" t="s">
         <v>146</v>
       </c>
-      <c r="AF40" s="56"/>
-      <c r="AG40" s="56" t="s">
+      <c r="AF40" s="69"/>
+      <c r="AG40" s="69" t="s">
         <v>162</v>
       </c>
       <c r="AH40" s="30" t="s">
@@ -3664,22 +3691,22 @@
         <v>8</v>
       </c>
       <c r="S41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T41" t="s">
         <v>138</v>
       </c>
-      <c r="U41" s="69">
+      <c r="U41">
         <v>16</v>
       </c>
       <c r="V41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W41" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="56"/>
+        <v>200</v>
+      </c>
+      <c r="AF41" s="69"/>
+      <c r="AG41" s="69"/>
       <c r="AH41" s="36" t="s">
         <v>165</v>
       </c>
@@ -3866,6 +3893,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AG32:AG34"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AF32:AF41"/>
+    <mergeCell ref="AF24:AF29"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AF20:AF23"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AG4:AI4"/>
@@ -3874,17 +3912,6 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="S16:S20"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AF20:AF23"/>
-    <mergeCell ref="AG32:AG34"/>
-    <mergeCell ref="AG35:AG39"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AF32:AF41"/>
-    <mergeCell ref="AF24:AF29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asd_balanced_patched_map.xlsx
+++ b/asd_balanced_patched_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571CF9C-277F-4415-9FE7-647D746E878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FCE5FE-4BBB-433B-8607-21E4AAF04434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1319,6 +1319,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,26 +1354,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC10" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+    <sheetView tabSelected="1" topLeftCell="AA13" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1756,40 +1756,40 @@
       <c r="K2">
         <v>0.09</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="62" t="s">
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="64" t="s">
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="63" t="s">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="57" t="s">
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1816,40 +1816,40 @@
       <c r="H3" s="2">
         <v>1.45</v>
       </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="63" t="s">
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63" t="s">
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="66" t="s">
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="67" t="s">
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="57" t="s">
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1905,16 +1905,16 @@
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="24"/>
-      <c r="AG4" s="58" t="s">
+      <c r="AG4" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="63" t="s">
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
       <c r="AM4" s="30" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="K16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S16" s="65" t="s">
+      <c r="S16" s="59" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="22" t="s">
@@ -2497,7 +2497,7 @@
       <c r="H17" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S17" s="65"/>
+      <c r="S17" s="59"/>
       <c r="T17" s="25" t="s">
         <v>130</v>
       </c>
@@ -2528,7 +2528,7 @@
       <c r="H18" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S18" s="65"/>
+      <c r="S18" s="59"/>
       <c r="T18" s="25" t="s">
         <v>131</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="H19" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S19" s="65"/>
+      <c r="S19" s="59"/>
       <c r="T19" s="25" t="s">
         <v>132</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="K20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S20" s="65"/>
+      <c r="S20" s="59"/>
       <c r="T20" s="27" t="s">
         <v>133</v>
       </c>
@@ -2609,10 +2609,10 @@
       <c r="Y20" s="50">
         <v>28</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AE20" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="AF20" s="68" t="s">
+      <c r="AF20" s="58" t="s">
         <v>123</v>
       </c>
       <c r="AG20" s="22" t="s">
@@ -2656,10 +2656,10 @@
       <c r="Y21" s="50">
         <v>25</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AE21" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="AF21" s="68"/>
+      <c r="AF21" s="58"/>
       <c r="AG21" s="25" t="s">
         <v>226</v>
       </c>
@@ -2702,10 +2702,10 @@
       <c r="AB22" s="44">
         <v>30</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AE22" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="AF22" s="68"/>
+      <c r="AF22" s="58"/>
       <c r="AG22" s="25" t="s">
         <v>175</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="AE23" t="s">
         <v>225</v>
       </c>
-      <c r="AF23" s="68"/>
+      <c r="AF23" s="58"/>
       <c r="AG23" s="27" t="s">
         <v>180</v>
       </c>
@@ -2799,7 +2799,7 @@
       <c r="Y24" s="43">
         <v>21</v>
       </c>
-      <c r="AF24" s="68" t="s">
+      <c r="AF24" s="58" t="s">
         <v>124</v>
       </c>
       <c r="AG24" s="25" t="s">
@@ -2850,7 +2850,7 @@
       <c r="Z25" s="43">
         <v>20</v>
       </c>
-      <c r="AF25" s="68"/>
+      <c r="AF25" s="58"/>
       <c r="AG25" s="25" t="s">
         <v>171</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="Y26" s="43">
         <v>19</v>
       </c>
-      <c r="AF26" s="68"/>
+      <c r="AF26" s="58"/>
       <c r="AG26" s="25" t="s">
         <v>172</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="Y27" s="45">
         <v>22</v>
       </c>
-      <c r="AF27" s="68"/>
+      <c r="AF27" s="58"/>
       <c r="AG27" s="25" t="s">
         <v>173</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="Y28" s="43">
         <v>23</v>
       </c>
-      <c r="AF28" s="68"/>
+      <c r="AF28" s="58"/>
       <c r="AG28" s="25" t="s">
         <v>174</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="U29" s="39">
         <v>7</v>
       </c>
-      <c r="AF29" s="68"/>
+      <c r="AF29" s="58"/>
       <c r="AG29" s="27" t="s">
         <v>169</v>
       </c>
@@ -3151,10 +3151,10 @@
       <c r="AE32" t="s">
         <v>168</v>
       </c>
-      <c r="AF32" s="69" t="s">
+      <c r="AF32" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="AG32" s="69" t="s">
+      <c r="AG32" s="57" t="s">
         <v>164</v>
       </c>
       <c r="AH32" s="30" t="s">
@@ -3196,8 +3196,8 @@
       <c r="H33" s="2">
         <v>1.04</v>
       </c>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
       <c r="AH33" s="33" t="s">
         <v>155</v>
       </c>
@@ -3282,8 +3282,8 @@
       <c r="AC34" t="s">
         <v>202</v>
       </c>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="69"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
       <c r="AH34" s="36" t="s">
         <v>156</v>
       </c>
@@ -3359,8 +3359,8 @@
       <c r="AC35" t="s">
         <v>203</v>
       </c>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69" t="s">
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57" t="s">
         <v>163</v>
       </c>
       <c r="AH35" s="30" t="s">
@@ -3456,8 +3456,8 @@
       <c r="AC36" t="s">
         <v>206</v>
       </c>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="69"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
       <c r="AH36" s="33" t="s">
         <v>158</v>
       </c>
@@ -3509,8 +3509,8 @@
       <c r="AC37" t="s">
         <v>144</v>
       </c>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
+      <c r="AF37" s="57"/>
+      <c r="AG37" s="57"/>
       <c r="AH37" s="33" t="s">
         <v>157</v>
       </c>
@@ -3562,8 +3562,8 @@
       <c r="AC38" t="s">
         <v>207</v>
       </c>
-      <c r="AF38" s="69"/>
-      <c r="AG38" s="69"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
       <c r="AH38" s="33" t="s">
         <v>159</v>
       </c>
@@ -3615,8 +3615,8 @@
       <c r="AC39" t="s">
         <v>145</v>
       </c>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
+      <c r="AF39" s="57"/>
+      <c r="AG39" s="57"/>
       <c r="AH39" s="36" t="s">
         <v>167</v>
       </c>
@@ -3668,8 +3668,8 @@
       <c r="AC40" t="s">
         <v>146</v>
       </c>
-      <c r="AF40" s="69"/>
-      <c r="AG40" s="69" t="s">
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57" t="s">
         <v>162</v>
       </c>
       <c r="AH40" s="30" t="s">
@@ -3705,8 +3705,8 @@
       <c r="W41" t="s">
         <v>200</v>
       </c>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="69"/>
+      <c r="AF41" s="57"/>
+      <c r="AG41" s="57"/>
       <c r="AH41" s="36" t="s">
         <v>165</v>
       </c>
@@ -3893,17 +3893,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AG32:AG34"/>
-    <mergeCell ref="AG35:AG39"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AF32:AF41"/>
-    <mergeCell ref="AF24:AF29"/>
-    <mergeCell ref="S16:S20"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AF20:AF23"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AG4:AI4"/>
@@ -3912,6 +3901,17 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AF20:AF23"/>
+    <mergeCell ref="AG32:AG34"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AF32:AF41"/>
+    <mergeCell ref="AF24:AF29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asd_balanced_patched_map.xlsx
+++ b/asd_balanced_patched_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FCE5FE-4BBB-433B-8607-21E4AAF04434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD0F6D6-9119-4858-8C89-A7A281A164A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="233">
   <si>
     <t>type</t>
   </si>
@@ -875,6 +875,26 @@
   </si>
   <si>
     <t>스킬 : 불타는 해골 + 스켈레톤 미만급 소환 (개체수 유지+뎀감 or 누적 개체수)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat_swarm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ressurrection</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1258,7 +1278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1319,24 +1339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,9 +1356,29 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="보통" xfId="2" builtinId="28"/>
@@ -1665,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA13" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" topLeftCell="AB13" workbookViewId="0">
+      <selection activeCell="AJ29" sqref="AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1756,40 +1778,40 @@
       <c r="K2">
         <v>0.09</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="68" t="s">
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="69" t="s">
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="62" t="s">
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="63" t="s">
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1816,40 +1838,40 @@
       <c r="H3" s="2">
         <v>1.45</v>
       </c>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="62" t="s">
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62" t="s">
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="60" t="s">
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="61" t="s">
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="63" t="s">
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1905,16 +1927,16 @@
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="24"/>
-      <c r="AG4" s="64" t="s">
+      <c r="AG4" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="62" t="s">
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
       <c r="AM4" s="30" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +2485,7 @@
       <c r="K16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S16" s="59" t="s">
+      <c r="S16" s="65" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="22" t="s">
@@ -2497,7 +2519,7 @@
       <c r="H17" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S17" s="59"/>
+      <c r="S17" s="65"/>
       <c r="T17" s="25" t="s">
         <v>130</v>
       </c>
@@ -2528,7 +2550,7 @@
       <c r="H18" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S18" s="59"/>
+      <c r="S18" s="65"/>
       <c r="T18" s="25" t="s">
         <v>131</v>
       </c>
@@ -2559,7 +2581,7 @@
       <c r="H19" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S19" s="59"/>
+      <c r="S19" s="65"/>
       <c r="T19" s="25" t="s">
         <v>132</v>
       </c>
@@ -2600,7 +2622,7 @@
       <c r="K20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S20" s="59"/>
+      <c r="S20" s="65"/>
       <c r="T20" s="27" t="s">
         <v>133</v>
       </c>
@@ -2612,7 +2634,7 @@
       <c r="AE20" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="AF20" s="58" t="s">
+      <c r="AF20" s="68" t="s">
         <v>123</v>
       </c>
       <c r="AG20" s="22" t="s">
@@ -2659,7 +2681,7 @@
       <c r="AE21" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="AF21" s="58"/>
+      <c r="AF21" s="68"/>
       <c r="AG21" s="25" t="s">
         <v>226</v>
       </c>
@@ -2705,7 +2727,7 @@
       <c r="AE22" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="AF22" s="58"/>
+      <c r="AF22" s="68"/>
       <c r="AG22" s="25" t="s">
         <v>175</v>
       </c>
@@ -2742,10 +2764,10 @@
       <c r="Y23" s="50">
         <v>24</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AE23" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="AF23" s="58"/>
+      <c r="AF23" s="68"/>
       <c r="AG23" s="27" t="s">
         <v>180</v>
       </c>
@@ -2799,7 +2821,10 @@
       <c r="Y24" s="43">
         <v>21</v>
       </c>
-      <c r="AF24" s="58" t="s">
+      <c r="AE24" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF24" s="68" t="s">
         <v>124</v>
       </c>
       <c r="AG24" s="25" t="s">
@@ -2850,7 +2875,10 @@
       <c r="Z25" s="43">
         <v>20</v>
       </c>
-      <c r="AF25" s="58"/>
+      <c r="AE25" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF25" s="68"/>
       <c r="AG25" s="25" t="s">
         <v>171</v>
       </c>
@@ -2890,7 +2918,10 @@
       <c r="Y26" s="43">
         <v>19</v>
       </c>
-      <c r="AF26" s="58"/>
+      <c r="AE26" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF26" s="68"/>
       <c r="AG26" s="25" t="s">
         <v>172</v>
       </c>
@@ -2936,7 +2967,10 @@
       <c r="Y27" s="45">
         <v>22</v>
       </c>
-      <c r="AF27" s="58"/>
+      <c r="AE27" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF27" s="68"/>
       <c r="AG27" s="25" t="s">
         <v>173</v>
       </c>
@@ -2973,7 +3007,10 @@
       <c r="Y28" s="43">
         <v>23</v>
       </c>
-      <c r="AF28" s="58"/>
+      <c r="AE28" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF28" s="68"/>
       <c r="AG28" s="25" t="s">
         <v>174</v>
       </c>
@@ -3022,7 +3059,10 @@
       <c r="U29" s="39">
         <v>7</v>
       </c>
-      <c r="AF29" s="58"/>
+      <c r="AE29" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF29" s="68"/>
       <c r="AG29" s="27" t="s">
         <v>169</v>
       </c>
@@ -3151,10 +3191,10 @@
       <c r="AE32" t="s">
         <v>168</v>
       </c>
-      <c r="AF32" s="57" t="s">
+      <c r="AF32" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="AG32" s="57" t="s">
+      <c r="AG32" s="69" t="s">
         <v>164</v>
       </c>
       <c r="AH32" s="30" t="s">
@@ -3196,8 +3236,8 @@
       <c r="H33" s="2">
         <v>1.04</v>
       </c>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="69"/>
       <c r="AH33" s="33" t="s">
         <v>155</v>
       </c>
@@ -3282,8 +3322,8 @@
       <c r="AC34" t="s">
         <v>202</v>
       </c>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="69"/>
       <c r="AH34" s="36" t="s">
         <v>156</v>
       </c>
@@ -3359,8 +3399,8 @@
       <c r="AC35" t="s">
         <v>203</v>
       </c>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57" t="s">
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69" t="s">
         <v>163</v>
       </c>
       <c r="AH35" s="30" t="s">
@@ -3456,8 +3496,8 @@
       <c r="AC36" t="s">
         <v>206</v>
       </c>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
+      <c r="AF36" s="69"/>
+      <c r="AG36" s="69"/>
       <c r="AH36" s="33" t="s">
         <v>158</v>
       </c>
@@ -3509,8 +3549,8 @@
       <c r="AC37" t="s">
         <v>144</v>
       </c>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="57"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="69"/>
       <c r="AH37" s="33" t="s">
         <v>157</v>
       </c>
@@ -3562,8 +3602,8 @@
       <c r="AC38" t="s">
         <v>207</v>
       </c>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
+      <c r="AF38" s="69"/>
+      <c r="AG38" s="69"/>
       <c r="AH38" s="33" t="s">
         <v>159</v>
       </c>
@@ -3615,8 +3655,8 @@
       <c r="AC39" t="s">
         <v>145</v>
       </c>
-      <c r="AF39" s="57"/>
-      <c r="AG39" s="57"/>
+      <c r="AF39" s="69"/>
+      <c r="AG39" s="69"/>
       <c r="AH39" s="36" t="s">
         <v>167</v>
       </c>
@@ -3668,8 +3708,8 @@
       <c r="AC40" t="s">
         <v>146</v>
       </c>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57" t="s">
+      <c r="AF40" s="69"/>
+      <c r="AG40" s="69" t="s">
         <v>162</v>
       </c>
       <c r="AH40" s="30" t="s">
@@ -3705,8 +3745,8 @@
       <c r="W41" t="s">
         <v>200</v>
       </c>
-      <c r="AF41" s="57"/>
-      <c r="AG41" s="57"/>
+      <c r="AF41" s="69"/>
+      <c r="AG41" s="69"/>
       <c r="AH41" s="36" t="s">
         <v>165</v>
       </c>
@@ -3893,6 +3933,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AG32:AG34"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AF32:AF41"/>
+    <mergeCell ref="AF24:AF29"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AF20:AF23"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AG4:AI4"/>
@@ -3901,17 +3952,6 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="S16:S20"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AF20:AF23"/>
-    <mergeCell ref="AG32:AG34"/>
-    <mergeCell ref="AG35:AG39"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AF32:AF41"/>
-    <mergeCell ref="AF24:AF29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asd_balanced_patched_map.xlsx
+++ b/asd_balanced_patched_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD0F6D6-9119-4858-8C89-A7A281A164A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC91822-C9B2-4256-9F08-789D407511FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1377,7 +1377,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB13" workbookViewId="0">
-      <selection activeCell="AJ29" sqref="AJ29"/>
+    <sheetView tabSelected="1" topLeftCell="AD10" workbookViewId="0">
+      <selection activeCell="AL18" sqref="AL17:AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2967,7 +2967,7 @@
       <c r="Y27" s="45">
         <v>22</v>
       </c>
-      <c r="AE27" s="71" t="s">
+      <c r="AE27" s="47" t="s">
         <v>222</v>
       </c>
       <c r="AF27" s="68"/>

--- a/asd_balanced_patched_map.xlsx
+++ b/asd_balanced_patched_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC91822-C9B2-4256-9F08-789D407511FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300068C2-BCD9-4A74-BD23-100D088C70A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20250" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="234">
   <si>
     <t>type</t>
   </si>
@@ -842,10 +842,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>center_entrance</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -895,6 +891,14 @@
   </si>
   <si>
     <t>ressurrection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 시, 처치 당 hp 20퍼센트 회복</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jail(throne room)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,6 +1037,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1377,8 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="보통" xfId="2" builtinId="28"/>
@@ -1687,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD10" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL17:AL18"/>
+    <sheetView tabSelected="1" topLeftCell="Q24" workbookViewId="0">
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2632,13 +2641,13 @@
         <v>28</v>
       </c>
       <c r="AE20" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF20" s="68" t="s">
         <v>123</v>
       </c>
       <c r="AG20" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH20" s="23"/>
       <c r="AI20" s="23"/>
@@ -2679,11 +2688,11 @@
         <v>25</v>
       </c>
       <c r="AE21" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF21" s="68"/>
       <c r="AG21" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AP21" s="26"/>
     </row>
@@ -2725,7 +2734,7 @@
         <v>30</v>
       </c>
       <c r="AE22" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF22" s="68"/>
       <c r="AG22" s="25" t="s">
@@ -2765,7 +2774,7 @@
         <v>24</v>
       </c>
       <c r="AE23" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF23" s="68"/>
       <c r="AG23" s="27" t="s">
@@ -2821,8 +2830,8 @@
       <c r="Y24" s="43">
         <v>21</v>
       </c>
-      <c r="AE24" s="70" t="s">
-        <v>228</v>
+      <c r="AE24" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="AF24" s="68" t="s">
         <v>124</v>
@@ -2875,8 +2884,8 @@
       <c r="Z25" s="43">
         <v>20</v>
       </c>
-      <c r="AE25" s="71" t="s">
-        <v>229</v>
+      <c r="AE25" t="s">
+        <v>228</v>
       </c>
       <c r="AF25" s="68"/>
       <c r="AG25" s="25" t="s">
@@ -2918,8 +2927,8 @@
       <c r="Y26" s="43">
         <v>19</v>
       </c>
-      <c r="AE26" s="71" t="s">
-        <v>230</v>
+      <c r="AE26" t="s">
+        <v>229</v>
       </c>
       <c r="AF26" s="68"/>
       <c r="AG26" s="25" t="s">
@@ -2968,7 +2977,7 @@
         <v>22</v>
       </c>
       <c r="AE27" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF27" s="68"/>
       <c r="AG27" s="25" t="s">
@@ -3007,8 +3016,8 @@
       <c r="Y28" s="43">
         <v>23</v>
       </c>
-      <c r="AE28" s="71" t="s">
-        <v>232</v>
+      <c r="AE28" t="s">
+        <v>231</v>
       </c>
       <c r="AF28" s="68"/>
       <c r="AG28" s="25" t="s">
@@ -3059,8 +3068,8 @@
       <c r="U29" s="39">
         <v>7</v>
       </c>
-      <c r="AE29" s="71" t="s">
-        <v>231</v>
+      <c r="AE29" t="s">
+        <v>230</v>
       </c>
       <c r="AF29" s="68"/>
       <c r="AG29" s="27" t="s">
@@ -3068,7 +3077,9 @@
       </c>
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
+      <c r="AJ29" s="28" t="s">
+        <v>232</v>
+      </c>
       <c r="AK29" s="28"/>
       <c r="AL29" s="28"/>
       <c r="AM29" s="28"/>
@@ -3307,7 +3318,7 @@
       <c r="X34">
         <v>17</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y34" s="70" t="s">
         <v>208</v>
       </c>
       <c r="Z34" t="s">
@@ -3316,7 +3327,7 @@
       <c r="AA34">
         <v>24</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AB34" s="70" t="s">
         <v>215</v>
       </c>
       <c r="AC34" t="s">
@@ -3384,7 +3395,7 @@
       <c r="X35">
         <v>18</v>
       </c>
-      <c r="Y35" s="56" t="s">
+      <c r="Y35" s="70" t="s">
         <v>209</v>
       </c>
       <c r="Z35" s="56" t="s">
@@ -3393,7 +3404,7 @@
       <c r="AA35">
         <v>25</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AB35" s="70" t="s">
         <v>217</v>
       </c>
       <c r="AC35" t="s">
@@ -3490,7 +3501,7 @@
       <c r="AA36">
         <v>26</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AB36" s="70" t="s">
         <v>216</v>
       </c>
       <c r="AC36" t="s">
@@ -3534,7 +3545,7 @@
       <c r="X37">
         <v>20</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Y37" s="70" t="s">
         <v>210</v>
       </c>
       <c r="Z37" t="s">
@@ -3543,7 +3554,7 @@
       <c r="AA37">
         <v>27</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AB37" s="70" t="s">
         <v>218</v>
       </c>
       <c r="AC37" t="s">
@@ -3596,8 +3607,8 @@
       <c r="AA38">
         <v>28</v>
       </c>
-      <c r="AB38" t="s">
-        <v>219</v>
+      <c r="AB38" s="70" t="s">
+        <v>233</v>
       </c>
       <c r="AC38" t="s">
         <v>207</v>
@@ -3622,7 +3633,7 @@
       <c r="R39">
         <v>6</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S39" s="70" t="s">
         <v>188</v>
       </c>
       <c r="T39" t="s">
@@ -3650,7 +3661,7 @@
         <v>29</v>
       </c>
       <c r="AB39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC39" t="s">
         <v>145</v>
@@ -3675,7 +3686,7 @@
       <c r="R40">
         <v>7</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40" s="70" t="s">
         <v>189</v>
       </c>
       <c r="T40" t="s">
@@ -3693,7 +3704,7 @@
       <c r="X40">
         <v>23</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Y40" s="70" t="s">
         <v>214</v>
       </c>
       <c r="Z40" t="s">
@@ -3703,7 +3714,7 @@
         <v>30</v>
       </c>
       <c r="AB40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC40" t="s">
         <v>146</v>
@@ -3730,7 +3741,7 @@
       <c r="R41">
         <v>8</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" s="70" t="s">
         <v>190</v>
       </c>
       <c r="T41" t="s">

--- a/asd_balanced_patched_map.xlsx
+++ b/asd_balanced_patched_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300068C2-BCD9-4A74-BD23-100D088C70A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D1792-FCC7-42B8-B96B-8B2ED412FEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20250" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23790" yWindow="2370" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1348,6 +1348,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1366,28 +1385,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="보통" xfId="2" builtinId="28"/>
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q24" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+    <sheetView tabSelected="1" topLeftCell="AA18" workbookViewId="0">
+      <selection activeCell="AR27" sqref="AR27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1787,26 +1787,26 @@
       <c r="K2">
         <v>0.09</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="62" t="s">
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="64" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
       <c r="AG2" s="63" t="s">
         <v>91</v>
       </c>
@@ -1815,12 +1815,12 @@
       <c r="AJ2" s="63"/>
       <c r="AK2" s="63"/>
       <c r="AL2" s="63"/>
-      <c r="AM2" s="57" t="s">
+      <c r="AM2" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1847,11 +1847,11 @@
       <c r="H3" s="2">
         <v>1.45</v>
       </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
       <c r="X3" s="63" t="s">
         <v>83</v>
       </c>
@@ -1865,22 +1865,22 @@
       <c r="AD3" s="63"/>
       <c r="AE3" s="63"/>
       <c r="AF3" s="63"/>
-      <c r="AG3" s="66" t="s">
+      <c r="AG3" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="67" t="s">
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="57" t="s">
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1936,11 +1936,11 @@
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="24"/>
-      <c r="AG4" s="58" t="s">
+      <c r="AG4" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="60"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67"/>
       <c r="AJ4" s="63" t="s">
         <v>89</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="K16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S16" s="65" t="s">
+      <c r="S16" s="60" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="22" t="s">
@@ -2528,7 +2528,7 @@
       <c r="H17" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S17" s="65"/>
+      <c r="S17" s="60"/>
       <c r="T17" s="25" t="s">
         <v>130</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="H18" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S18" s="65"/>
+      <c r="S18" s="60"/>
       <c r="T18" s="25" t="s">
         <v>131</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="H19" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S19" s="65"/>
+      <c r="S19" s="60"/>
       <c r="T19" s="25" t="s">
         <v>132</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="K20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S20" s="65"/>
+      <c r="S20" s="60"/>
       <c r="T20" s="27" t="s">
         <v>133</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="AE20" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="AF20" s="68" t="s">
+      <c r="AF20" s="59" t="s">
         <v>123</v>
       </c>
       <c r="AG20" s="22" t="s">
@@ -2690,7 +2690,7 @@
       <c r="AE21" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="AF21" s="68"/>
+      <c r="AF21" s="59"/>
       <c r="AG21" s="25" t="s">
         <v>225</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="AE22" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="AF22" s="68"/>
+      <c r="AF22" s="59"/>
       <c r="AG22" s="25" t="s">
         <v>175</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="AE23" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="AF23" s="68"/>
+      <c r="AF23" s="59"/>
       <c r="AG23" s="27" t="s">
         <v>180</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="AE24" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="AF24" s="68" t="s">
+      <c r="AF24" s="59" t="s">
         <v>124</v>
       </c>
       <c r="AG24" s="25" t="s">
@@ -2884,10 +2884,10 @@
       <c r="Z25" s="43">
         <v>20</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AE25" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="AF25" s="68"/>
+      <c r="AF25" s="59"/>
       <c r="AG25" s="25" t="s">
         <v>171</v>
       </c>
@@ -2927,10 +2927,10 @@
       <c r="Y26" s="43">
         <v>19</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AE26" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="AF26" s="68"/>
+      <c r="AF26" s="59"/>
       <c r="AG26" s="25" t="s">
         <v>172</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="AE27" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="AF27" s="68"/>
+      <c r="AF27" s="59"/>
       <c r="AG27" s="25" t="s">
         <v>173</v>
       </c>
@@ -3019,7 +3019,7 @@
       <c r="AE28" t="s">
         <v>231</v>
       </c>
-      <c r="AF28" s="68"/>
+      <c r="AF28" s="59"/>
       <c r="AG28" s="25" t="s">
         <v>174</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="AE29" t="s">
         <v>230</v>
       </c>
-      <c r="AF29" s="68"/>
+      <c r="AF29" s="59"/>
       <c r="AG29" s="27" t="s">
         <v>169</v>
       </c>
@@ -3202,10 +3202,10 @@
       <c r="AE32" t="s">
         <v>168</v>
       </c>
-      <c r="AF32" s="69" t="s">
+      <c r="AF32" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="AG32" s="69" t="s">
+      <c r="AG32" s="58" t="s">
         <v>164</v>
       </c>
       <c r="AH32" s="30" t="s">
@@ -3247,8 +3247,8 @@
       <c r="H33" s="2">
         <v>1.04</v>
       </c>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
       <c r="AH33" s="33" t="s">
         <v>155</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="X34">
         <v>17</v>
       </c>
-      <c r="Y34" s="70" t="s">
+      <c r="Y34" s="57" t="s">
         <v>208</v>
       </c>
       <c r="Z34" t="s">
@@ -3327,14 +3327,14 @@
       <c r="AA34">
         <v>24</v>
       </c>
-      <c r="AB34" s="70" t="s">
+      <c r="AB34" s="57" t="s">
         <v>215</v>
       </c>
       <c r="AC34" t="s">
         <v>202</v>
       </c>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="69"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
       <c r="AH34" s="36" t="s">
         <v>156</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="X35">
         <v>18</v>
       </c>
-      <c r="Y35" s="70" t="s">
+      <c r="Y35" s="57" t="s">
         <v>209</v>
       </c>
       <c r="Z35" s="56" t="s">
@@ -3404,14 +3404,14 @@
       <c r="AA35">
         <v>25</v>
       </c>
-      <c r="AB35" s="70" t="s">
+      <c r="AB35" s="57" t="s">
         <v>217</v>
       </c>
       <c r="AC35" t="s">
         <v>203</v>
       </c>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69" t="s">
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="58" t="s">
         <v>163</v>
       </c>
       <c r="AH35" s="30" t="s">
@@ -3501,14 +3501,14 @@
       <c r="AA36">
         <v>26</v>
       </c>
-      <c r="AB36" s="70" t="s">
+      <c r="AB36" s="57" t="s">
         <v>216</v>
       </c>
       <c r="AC36" t="s">
         <v>206</v>
       </c>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="69"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
       <c r="AH36" s="33" t="s">
         <v>158</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="X37">
         <v>20</v>
       </c>
-      <c r="Y37" s="70" t="s">
+      <c r="Y37" s="57" t="s">
         <v>210</v>
       </c>
       <c r="Z37" t="s">
@@ -3554,14 +3554,14 @@
       <c r="AA37">
         <v>27</v>
       </c>
-      <c r="AB37" s="70" t="s">
+      <c r="AB37" s="57" t="s">
         <v>218</v>
       </c>
       <c r="AC37" t="s">
         <v>144</v>
       </c>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="58"/>
       <c r="AH37" s="33" t="s">
         <v>157</v>
       </c>
@@ -3607,14 +3607,14 @@
       <c r="AA38">
         <v>28</v>
       </c>
-      <c r="AB38" s="70" t="s">
+      <c r="AB38" s="57" t="s">
         <v>233</v>
       </c>
       <c r="AC38" t="s">
         <v>207</v>
       </c>
-      <c r="AF38" s="69"/>
-      <c r="AG38" s="69"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
       <c r="AH38" s="33" t="s">
         <v>159</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="R39">
         <v>6</v>
       </c>
-      <c r="S39" s="70" t="s">
+      <c r="S39" s="57" t="s">
         <v>188</v>
       </c>
       <c r="T39" t="s">
@@ -3666,8 +3666,8 @@
       <c r="AC39" t="s">
         <v>145</v>
       </c>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
       <c r="AH39" s="36" t="s">
         <v>167</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="R40">
         <v>7</v>
       </c>
-      <c r="S40" s="70" t="s">
+      <c r="S40" s="57" t="s">
         <v>189</v>
       </c>
       <c r="T40" t="s">
@@ -3704,7 +3704,7 @@
       <c r="X40">
         <v>23</v>
       </c>
-      <c r="Y40" s="70" t="s">
+      <c r="Y40" s="57" t="s">
         <v>214</v>
       </c>
       <c r="Z40" t="s">
@@ -3719,8 +3719,8 @@
       <c r="AC40" t="s">
         <v>146</v>
       </c>
-      <c r="AF40" s="69"/>
-      <c r="AG40" s="69" t="s">
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="58" t="s">
         <v>162</v>
       </c>
       <c r="AH40" s="30" t="s">
@@ -3741,7 +3741,7 @@
       <c r="R41">
         <v>8</v>
       </c>
-      <c r="S41" s="70" t="s">
+      <c r="S41" s="57" t="s">
         <v>190</v>
       </c>
       <c r="T41" t="s">
@@ -3756,8 +3756,8 @@
       <c r="W41" t="s">
         <v>200</v>
       </c>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="69"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
       <c r="AH41" s="36" t="s">
         <v>165</v>
       </c>
@@ -3944,17 +3944,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AG32:AG34"/>
-    <mergeCell ref="AG35:AG39"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AF32:AF41"/>
-    <mergeCell ref="AF24:AF29"/>
-    <mergeCell ref="S16:S20"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AF20:AF23"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AG4:AI4"/>
@@ -3963,6 +3952,17 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AF20:AF23"/>
+    <mergeCell ref="AG32:AG34"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AF32:AF41"/>
+    <mergeCell ref="AF24:AF29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asd_balanced_patched_map.xlsx
+++ b/asd_balanced_patched_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D1792-FCC7-42B8-B96B-8B2ED412FEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115980D-B29F-4816-894D-048068F8A53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23790" yWindow="2370" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1350,24 +1350,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,8 +1367,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA18" workbookViewId="0">
-      <selection activeCell="AR27" sqref="AR27"/>
+    <sheetView tabSelected="1" topLeftCell="M27" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1787,40 +1787,40 @@
       <c r="K2">
         <v>0.09</v>
       </c>
-      <c r="S2" s="68" t="s">
+      <c r="S2" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="69" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="70" t="s">
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="63" t="s">
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="64" t="s">
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1847,40 +1847,40 @@
       <c r="H3" s="2">
         <v>1.45</v>
       </c>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="63" t="s">
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63" t="s">
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="61" t="s">
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="62" t="s">
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="64" t="s">
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1936,16 +1936,16 @@
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="24"/>
-      <c r="AG4" s="65" t="s">
+      <c r="AG4" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="63" t="s">
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
       <c r="AM4" s="30" t="s">
         <v>95</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="K16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S16" s="60" t="s">
+      <c r="S16" s="66" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="22" t="s">
@@ -2502,6 +2502,9 @@
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="24"/>
+      <c r="W16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -2528,11 +2531,14 @@
       <c r="H17" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S17" s="60"/>
+      <c r="S17" s="66"/>
       <c r="T17" s="25" t="s">
         <v>130</v>
       </c>
       <c r="V17" s="26"/>
+      <c r="W17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -2559,11 +2565,14 @@
       <c r="H18" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S18" s="60"/>
+      <c r="S18" s="66"/>
       <c r="T18" s="25" t="s">
         <v>131</v>
       </c>
       <c r="V18" s="26"/>
+      <c r="W18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -2590,11 +2599,14 @@
       <c r="H19" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S19" s="60"/>
+      <c r="S19" s="66"/>
       <c r="T19" s="25" t="s">
         <v>132</v>
       </c>
       <c r="V19" s="26"/>
+      <c r="W19">
+        <v>4</v>
+      </c>
       <c r="AE19" s="21"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.3">
@@ -2631,19 +2643,22 @@
       <c r="K20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S20" s="60"/>
+      <c r="S20" s="66"/>
       <c r="T20" s="27" t="s">
         <v>133</v>
       </c>
       <c r="U20" s="28"/>
       <c r="V20" s="29"/>
+      <c r="W20">
+        <v>5</v>
+      </c>
       <c r="Y20" s="50">
         <v>28</v>
       </c>
       <c r="AE20" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="AF20" s="59" t="s">
+      <c r="AF20" s="69" t="s">
         <v>123</v>
       </c>
       <c r="AG20" s="22" t="s">
@@ -2690,7 +2705,7 @@
       <c r="AE21" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="AF21" s="59"/>
+      <c r="AF21" s="69"/>
       <c r="AG21" s="25" t="s">
         <v>225</v>
       </c>
@@ -2736,7 +2751,7 @@
       <c r="AE22" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="AF22" s="59"/>
+      <c r="AF22" s="69"/>
       <c r="AG22" s="25" t="s">
         <v>175</v>
       </c>
@@ -2776,7 +2791,7 @@
       <c r="AE23" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="AF23" s="59"/>
+      <c r="AF23" s="69"/>
       <c r="AG23" s="27" t="s">
         <v>180</v>
       </c>
@@ -2833,7 +2848,7 @@
       <c r="AE24" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="AF24" s="59" t="s">
+      <c r="AF24" s="69" t="s">
         <v>124</v>
       </c>
       <c r="AG24" s="25" t="s">
@@ -2887,7 +2902,7 @@
       <c r="AE25" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="AF25" s="59"/>
+      <c r="AF25" s="69"/>
       <c r="AG25" s="25" t="s">
         <v>171</v>
       </c>
@@ -2930,7 +2945,7 @@
       <c r="AE26" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="AF26" s="59"/>
+      <c r="AF26" s="69"/>
       <c r="AG26" s="25" t="s">
         <v>172</v>
       </c>
@@ -2979,7 +2994,7 @@
       <c r="AE27" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="AF27" s="59"/>
+      <c r="AF27" s="69"/>
       <c r="AG27" s="25" t="s">
         <v>173</v>
       </c>
@@ -3019,7 +3034,7 @@
       <c r="AE28" t="s">
         <v>231</v>
       </c>
-      <c r="AF28" s="59"/>
+      <c r="AF28" s="69"/>
       <c r="AG28" s="25" t="s">
         <v>174</v>
       </c>
@@ -3068,10 +3083,13 @@
       <c r="U29" s="39">
         <v>7</v>
       </c>
+      <c r="AB29">
+        <v>355555</v>
+      </c>
       <c r="AE29" t="s">
         <v>230</v>
       </c>
-      <c r="AF29" s="59"/>
+      <c r="AF29" s="69"/>
       <c r="AG29" s="27" t="s">
         <v>169</v>
       </c>
@@ -3202,10 +3220,10 @@
       <c r="AE32" t="s">
         <v>168</v>
       </c>
-      <c r="AF32" s="58" t="s">
+      <c r="AF32" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AG32" s="58" t="s">
+      <c r="AG32" s="70" t="s">
         <v>164</v>
       </c>
       <c r="AH32" s="30" t="s">
@@ -3247,8 +3265,8 @@
       <c r="H33" s="2">
         <v>1.04</v>
       </c>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="70"/>
       <c r="AH33" s="33" t="s">
         <v>155</v>
       </c>
@@ -3333,8 +3351,8 @@
       <c r="AC34" t="s">
         <v>202</v>
       </c>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
+      <c r="AF34" s="70"/>
+      <c r="AG34" s="70"/>
       <c r="AH34" s="36" t="s">
         <v>156</v>
       </c>
@@ -3410,8 +3428,8 @@
       <c r="AC35" t="s">
         <v>203</v>
       </c>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58" t="s">
+      <c r="AF35" s="70"/>
+      <c r="AG35" s="70" t="s">
         <v>163</v>
       </c>
       <c r="AH35" s="30" t="s">
@@ -3507,8 +3525,8 @@
       <c r="AC36" t="s">
         <v>206</v>
       </c>
-      <c r="AF36" s="58"/>
-      <c r="AG36" s="58"/>
+      <c r="AF36" s="70"/>
+      <c r="AG36" s="70"/>
       <c r="AH36" s="33" t="s">
         <v>158</v>
       </c>
@@ -3560,8 +3578,8 @@
       <c r="AC37" t="s">
         <v>144</v>
       </c>
-      <c r="AF37" s="58"/>
-      <c r="AG37" s="58"/>
+      <c r="AF37" s="70"/>
+      <c r="AG37" s="70"/>
       <c r="AH37" s="33" t="s">
         <v>157</v>
       </c>
@@ -3613,8 +3631,8 @@
       <c r="AC38" t="s">
         <v>207</v>
       </c>
-      <c r="AF38" s="58"/>
-      <c r="AG38" s="58"/>
+      <c r="AF38" s="70"/>
+      <c r="AG38" s="70"/>
       <c r="AH38" s="33" t="s">
         <v>159</v>
       </c>
@@ -3666,8 +3684,8 @@
       <c r="AC39" t="s">
         <v>145</v>
       </c>
-      <c r="AF39" s="58"/>
-      <c r="AG39" s="58"/>
+      <c r="AF39" s="70"/>
+      <c r="AG39" s="70"/>
       <c r="AH39" s="36" t="s">
         <v>167</v>
       </c>
@@ -3719,8 +3737,8 @@
       <c r="AC40" t="s">
         <v>146</v>
       </c>
-      <c r="AF40" s="58"/>
-      <c r="AG40" s="58" t="s">
+      <c r="AF40" s="70"/>
+      <c r="AG40" s="70" t="s">
         <v>162</v>
       </c>
       <c r="AH40" s="30" t="s">
@@ -3756,8 +3774,8 @@
       <c r="W41" t="s">
         <v>200</v>
       </c>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
+      <c r="AF41" s="70"/>
+      <c r="AG41" s="70"/>
       <c r="AH41" s="36" t="s">
         <v>165</v>
       </c>
@@ -3944,6 +3962,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AG32:AG34"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AF32:AF41"/>
+    <mergeCell ref="AF24:AF29"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AF20:AF23"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AG4:AI4"/>
@@ -3952,17 +3981,6 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="S16:S20"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AF20:AF23"/>
-    <mergeCell ref="AG32:AG34"/>
-    <mergeCell ref="AG35:AG39"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AF32:AF41"/>
-    <mergeCell ref="AF24:AF29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asd_balanced_patched_map.xlsx
+++ b/asd_balanced_patched_map.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Easter-Egg-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\Easter-Egg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115980D-B29F-4816-894D-048068F8A53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71C0731-780C-4C80-A657-692096AA0499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23790" yWindow="2370" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1350,6 +1355,24 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,26 +1390,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1408,9 +1413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1448,9 +1453,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1483,9 +1488,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1518,9 +1540,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1696,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M27" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1787,40 +1826,40 @@
       <c r="K2">
         <v>0.09</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="S2" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="63" t="s">
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="65" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="64" t="s">
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="58" t="s">
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1847,40 +1886,40 @@
       <c r="H3" s="2">
         <v>1.45</v>
       </c>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="64" t="s">
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64" t="s">
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="67" t="s">
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="68" t="s">
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="58" t="s">
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1936,16 +1975,16 @@
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="24"/>
-      <c r="AG4" s="59" t="s">
+      <c r="AG4" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="64" t="s">
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
       <c r="AM4" s="30" t="s">
         <v>95</v>
       </c>
@@ -2494,7 +2533,7 @@
       <c r="K16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S16" s="66" t="s">
+      <c r="S16" s="60" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="22" t="s">
@@ -2531,7 +2570,7 @@
       <c r="H17" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S17" s="66"/>
+      <c r="S17" s="60"/>
       <c r="T17" s="25" t="s">
         <v>130</v>
       </c>
@@ -2565,7 +2604,7 @@
       <c r="H18" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S18" s="66"/>
+      <c r="S18" s="60"/>
       <c r="T18" s="25" t="s">
         <v>131</v>
       </c>
@@ -2599,7 +2638,7 @@
       <c r="H19" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S19" s="66"/>
+      <c r="S19" s="60"/>
       <c r="T19" s="25" t="s">
         <v>132</v>
       </c>
@@ -2643,7 +2682,7 @@
       <c r="K20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S20" s="66"/>
+      <c r="S20" s="60"/>
       <c r="T20" s="27" t="s">
         <v>133</v>
       </c>
@@ -2658,7 +2697,7 @@
       <c r="AE20" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="AF20" s="69" t="s">
+      <c r="AF20" s="59" t="s">
         <v>123</v>
       </c>
       <c r="AG20" s="22" t="s">
@@ -2705,7 +2744,7 @@
       <c r="AE21" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="AF21" s="69"/>
+      <c r="AF21" s="59"/>
       <c r="AG21" s="25" t="s">
         <v>225</v>
       </c>
@@ -2751,7 +2790,7 @@
       <c r="AE22" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="AF22" s="69"/>
+      <c r="AF22" s="59"/>
       <c r="AG22" s="25" t="s">
         <v>175</v>
       </c>
@@ -2791,7 +2830,7 @@
       <c r="AE23" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="AF23" s="69"/>
+      <c r="AF23" s="59"/>
       <c r="AG23" s="27" t="s">
         <v>180</v>
       </c>
@@ -2848,7 +2887,7 @@
       <c r="AE24" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="AF24" s="69" t="s">
+      <c r="AF24" s="59" t="s">
         <v>124</v>
       </c>
       <c r="AG24" s="25" t="s">
@@ -2902,7 +2941,7 @@
       <c r="AE25" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="AF25" s="69"/>
+      <c r="AF25" s="59"/>
       <c r="AG25" s="25" t="s">
         <v>171</v>
       </c>
@@ -2945,7 +2984,7 @@
       <c r="AE26" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="AF26" s="69"/>
+      <c r="AF26" s="59"/>
       <c r="AG26" s="25" t="s">
         <v>172</v>
       </c>
@@ -2994,7 +3033,7 @@
       <c r="AE27" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="AF27" s="69"/>
+      <c r="AF27" s="59"/>
       <c r="AG27" s="25" t="s">
         <v>173</v>
       </c>
@@ -3034,7 +3073,7 @@
       <c r="AE28" t="s">
         <v>231</v>
       </c>
-      <c r="AF28" s="69"/>
+      <c r="AF28" s="59"/>
       <c r="AG28" s="25" t="s">
         <v>174</v>
       </c>
@@ -3089,7 +3128,7 @@
       <c r="AE29" t="s">
         <v>230</v>
       </c>
-      <c r="AF29" s="69"/>
+      <c r="AF29" s="59"/>
       <c r="AG29" s="27" t="s">
         <v>169</v>
       </c>
@@ -3220,10 +3259,10 @@
       <c r="AE32" t="s">
         <v>168</v>
       </c>
-      <c r="AF32" s="70" t="s">
+      <c r="AF32" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="AG32" s="70" t="s">
+      <c r="AG32" s="58" t="s">
         <v>164</v>
       </c>
       <c r="AH32" s="30" t="s">
@@ -3265,8 +3304,8 @@
       <c r="H33" s="2">
         <v>1.04</v>
       </c>
-      <c r="AF33" s="70"/>
-      <c r="AG33" s="70"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
       <c r="AH33" s="33" t="s">
         <v>155</v>
       </c>
@@ -3351,8 +3390,8 @@
       <c r="AC34" t="s">
         <v>202</v>
       </c>
-      <c r="AF34" s="70"/>
-      <c r="AG34" s="70"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
       <c r="AH34" s="36" t="s">
         <v>156</v>
       </c>
@@ -3428,8 +3467,8 @@
       <c r="AC35" t="s">
         <v>203</v>
       </c>
-      <c r="AF35" s="70"/>
-      <c r="AG35" s="70" t="s">
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="58" t="s">
         <v>163</v>
       </c>
       <c r="AH35" s="30" t="s">
@@ -3525,8 +3564,8 @@
       <c r="AC36" t="s">
         <v>206</v>
       </c>
-      <c r="AF36" s="70"/>
-      <c r="AG36" s="70"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
       <c r="AH36" s="33" t="s">
         <v>158</v>
       </c>
@@ -3578,8 +3617,8 @@
       <c r="AC37" t="s">
         <v>144</v>
       </c>
-      <c r="AF37" s="70"/>
-      <c r="AG37" s="70"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="58"/>
       <c r="AH37" s="33" t="s">
         <v>157</v>
       </c>
@@ -3631,8 +3670,8 @@
       <c r="AC38" t="s">
         <v>207</v>
       </c>
-      <c r="AF38" s="70"/>
-      <c r="AG38" s="70"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
       <c r="AH38" s="33" t="s">
         <v>159</v>
       </c>
@@ -3684,8 +3723,8 @@
       <c r="AC39" t="s">
         <v>145</v>
       </c>
-      <c r="AF39" s="70"/>
-      <c r="AG39" s="70"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
       <c r="AH39" s="36" t="s">
         <v>167</v>
       </c>
@@ -3737,8 +3776,8 @@
       <c r="AC40" t="s">
         <v>146</v>
       </c>
-      <c r="AF40" s="70"/>
-      <c r="AG40" s="70" t="s">
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="58" t="s">
         <v>162</v>
       </c>
       <c r="AH40" s="30" t="s">
@@ -3774,8 +3813,8 @@
       <c r="W41" t="s">
         <v>200</v>
       </c>
-      <c r="AF41" s="70"/>
-      <c r="AG41" s="70"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
       <c r="AH41" s="36" t="s">
         <v>165</v>
       </c>
@@ -3962,17 +4001,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AG32:AG34"/>
-    <mergeCell ref="AG35:AG39"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AF32:AF41"/>
-    <mergeCell ref="AF24:AF29"/>
-    <mergeCell ref="S16:S20"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AF20:AF23"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AG4:AI4"/>
@@ -3981,8 +4009,20 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AF20:AF23"/>
+    <mergeCell ref="AG32:AG34"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AF32:AF41"/>
+    <mergeCell ref="AF24:AF29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>